--- a/Mapping Matrix update.xlsx
+++ b/Mapping Matrix update.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sy\Documents\UiPath\PrePayroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ipan\PrePayrollIndosat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D30C2-828B-4FD4-BBF2-FBAE22838716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PICemail &amp; WTprefix" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapping DPLK" sheetId="2" r:id="rId2"/>
-    <sheet name="Mapping report&amp;WT" sheetId="3" r:id="rId3"/>
-    <sheet name="WT English" sheetId="4" r:id="rId4"/>
-    <sheet name="Matriks Wagetype-policy" sheetId="5" r:id="rId5"/>
-    <sheet name="Query LSMW" sheetId="6" r:id="rId6"/>
+    <sheet name="Setting" sheetId="7" r:id="rId2"/>
+    <sheet name="Mapping DPLK" sheetId="2" r:id="rId3"/>
+    <sheet name="Mapping report&amp;WT" sheetId="3" r:id="rId4"/>
+    <sheet name="WT English" sheetId="4" r:id="rId5"/>
+    <sheet name="Matriks Wagetype-policy" sheetId="5" r:id="rId6"/>
+    <sheet name="Query LSMW" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh1Oul/DqDWf3gpgtqNq2zZgvepUw=="/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="550">
   <si>
     <t>Pre-payroll untuk notes yang ada di masing-masing WT berdasarkan data dari eksternal</t>
   </si>
@@ -74,9 +74,6 @@
     <t>SKOPmmyyyy</t>
   </si>
   <si>
-    <t>D:\Payroll\2020\September\Pre Payroll\External\Data Kopindosat September 2020.xlsx</t>
-  </si>
-  <si>
     <t>4005 - Potongan Simpanan Wajib</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t>PKPSmmyyyy</t>
-  </si>
-  <si>
-    <t>D:\Payroll\2020\September\Pre Payroll\External\Data Kopensat September 2020.xlsx</t>
   </si>
   <si>
     <t>ZIS Indosat</t>
@@ -1624,17 +1618,87 @@
   </si>
   <si>
     <t>Musibah</t>
+  </si>
+  <si>
+    <t>D:\PrePayroll\2020\11</t>
+  </si>
+  <si>
+    <t>Master path</t>
+  </si>
+  <si>
+    <t>D:\PrePayroll\</t>
+  </si>
+  <si>
+    <t>Email Robot</t>
+  </si>
+  <si>
+    <t>syahid.alirfan@outlook.co.id</t>
+  </si>
+  <si>
+    <t>Username TVExtract</t>
+  </si>
+  <si>
+    <t>rpa@drife.co.id</t>
+  </si>
+  <si>
+    <t>Password TVExtract</t>
+  </si>
+  <si>
+    <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx</t>
+  </si>
+  <si>
+    <t>Nama File</t>
+  </si>
+  <si>
+    <t>4023,4024,4025;4004,4005,4006,4007;4026;2060;2160;2190</t>
+  </si>
+  <si>
+    <t>New Hire;ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;Musibah;Nikah;Khitan</t>
+  </si>
+  <si>
+    <t>Nama Sheet</t>
+  </si>
+  <si>
+    <t>D5:O;C10:AC;B9:D;D2:L;B2:K;B2:H</t>
+  </si>
+  <si>
+    <t>Range column yg diambil</t>
+  </si>
+  <si>
+    <t>Range Filter</t>
+  </si>
+  <si>
+    <t>0,9,10,11,99;0,23,24,25,26;0,2,91,92,93;0,8,91,92,93;0,1,91,92,93;0,1,91,92,93</t>
+  </si>
+  <si>
+    <t>Penambah Cell</t>
+  </si>
+  <si>
+    <t>4;8;8;1;1;1</t>
+  </si>
+  <si>
+    <t>1000000;300000</t>
+  </si>
+  <si>
+    <t>List Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1765,46 +1829,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1837,7 +1905,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="WT English-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="WT English-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1855,11 +1923,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:C157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:C157">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Wage type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Wage type Long Text"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="In English Term"/>
+    <tableColumn id="1" name="Wage type"/>
+    <tableColumn id="2" name="Wage type Long Text"/>
+    <tableColumn id="3" name="In English Term"/>
   </tableColumns>
   <tableStyleInfo name="WT English-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2062,11 +2130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2082,12 +2150,12 @@
     <col min="9" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -2113,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2135,53 +2203,57 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B4</f>
+        <v>D:\PrePayroll\2020\11\External\Kopindosat</v>
+      </c>
+      <c r="I4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2191,33 +2263,34 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B9</f>
+        <v>D:\PrePayroll\2020\11\External\Kopensat</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2227,79 +2300,80 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B11</f>
+        <v>D:\PrePayroll\2020\11\External\ZIS Indosat</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2309,30 +2383,31 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B16</f>
+        <v>D:\PrePayroll\2020\11\External\Overmedic</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2350,25 +2425,26 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B18</f>
+        <v>D:\PrePayroll\2020\11\External\Fastel</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,25 +2462,26 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B20</f>
+        <v>D:\PrePayroll\2020\11\External\Insentif Sales</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,27 +2489,25 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2444,23 +2519,27 @@
         <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>I4&amp;"\External\" &amp;B23</f>
+        <v>D:\PrePayroll\2020\11\External\New Hire</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2469,23 +2548,28 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>52</v>
+      <c r="H26" s="27" t="str">
+        <f>I4&amp;"\External\" &amp;B26</f>
+        <v>D:\PrePayroll\2020\11\External\Meals</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,27 +2577,40 @@
         <v>9</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D27" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H27" s="27" t="str">
+        <f>I4&amp;"\External\" &amp;B27</f>
+        <v>D:\PrePayroll\2020\11\External\Bantuan Nikah</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H28" s="27" t="str">
+        <f>I4&amp;"\External\" &amp;B28</f>
+        <v>D:\PrePayroll\2020\11\External\Bantuan Musibah</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="27"/>
+    </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3489,26 +3586,133 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{E2F7F6F5-560D-45CA-B167-6182519454C1}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{C8CBDF18-84F2-4AC4-87A0-026A0476A238}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="C22" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C27" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="28">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3529,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,16 +3764,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3577,11 +3781,11 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3589,10 +3793,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3601,7 +3805,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3611,7 +3815,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3639,16 +3843,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3656,13 +3860,13 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3670,7 +3874,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3680,7 +3884,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3708,16 +3912,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3725,11 +3929,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3737,7 +3941,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3747,7 +3951,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3775,16 +3979,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3792,11 +3996,11 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3804,7 +4008,7 @@
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3814,7 +4018,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3824,7 +4028,7 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3843,7 +4047,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3854,16 +4058,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="E30" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3871,11 +4075,11 @@
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3883,10 +4087,10 @@
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3913,16 +4117,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3932,7 +4136,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4903,28 +5107,28 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C19" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C30" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C31" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C32" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C35" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="C19" r:id="rId5"/>
+    <hyperlink ref="C20" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C31" r:id="rId12"/>
+    <hyperlink ref="C32" r:id="rId13"/>
+    <hyperlink ref="C35" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4945,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4953,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4971,7 +5175,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4988,7 +5192,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5">
         <v>4004</v>
@@ -4998,14 +5202,14 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="5">
         <v>4005</v>
@@ -5018,7 +5222,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5">
         <v>4006</v>
@@ -5031,7 +5235,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="5">
         <v>4007</v>
@@ -5044,7 +5248,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -5056,20 +5260,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5">
         <v>4026</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5086,20 +5290,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3">
         <v>4003</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5149,26 +5353,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3">
         <v>4001</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5185,26 +5389,26 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3">
         <v>4022</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,26 +5425,26 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3">
         <v>2135</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,13 +5457,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,19 +5489,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -5306,10 +5510,10 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5319,10 +5523,10 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5335,7 +5539,7 @@
         <v>1000</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5348,7 +5552,7 @@
         <v>1005</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -5361,7 +5565,7 @@
         <v>1010</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -5374,7 +5578,7 @@
         <v>1020</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -5393,19 +5597,19 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="5">
         <v>1000</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -5417,7 +5621,7 @@
         <v>1005</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -5430,7 +5634,7 @@
         <v>1010</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -5443,7 +5647,7 @@
         <v>1020</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -5453,10 +5657,10 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5469,7 +5673,7 @@
         <v>4005</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5479,10 +5683,10 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5501,19 +5705,19 @@
         <v>9</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="F41" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5522,10 +5726,10 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -5535,10 +5739,10 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5548,10 +5752,10 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5570,19 +5774,19 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -5594,7 +5798,7 @@
         <v>2322</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5604,10 +5808,10 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5626,19 +5830,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="5">
         <v>2155</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -5650,7 +5854,7 @@
         <v>2460</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -5669,19 +5873,19 @@
         <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="5">
         <v>2005</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G53" s="3"/>
     </row>
@@ -5699,19 +5903,19 @@
         <v>13</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="14">
         <v>2000</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -5723,10 +5927,10 @@
         <v>2175</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -5744,19 +5948,19 @@
         <v>14</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -5767,7 +5971,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -5785,19 +5989,19 @@
         <v>15</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -5815,17 +6019,17 @@
         <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" s="3"/>
     </row>
@@ -5843,19 +6047,19 @@
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="3">
         <v>2330</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G65" s="3"/>
     </row>
@@ -6796,25 +7000,25 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="F17" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F19" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="F21" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F33" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="F41" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F46" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="F63" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F65" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F21" r:id="rId6"/>
+    <hyperlink ref="F33" r:id="rId7"/>
+    <hyperlink ref="F41" r:id="rId8"/>
+    <hyperlink ref="F46" r:id="rId9"/>
+    <hyperlink ref="F63" r:id="rId10"/>
+    <hyperlink ref="F65" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6829,18 +7033,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,10 +7052,10 @@
         <v>1000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,10 +7063,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6870,10 +7074,10 @@
         <v>2005</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,10 +7085,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,10 +7096,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,10 +7107,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,10 +7118,10 @@
         <v>2025</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,10 +7129,10 @@
         <v>2030</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,10 +7140,10 @@
         <v>2035</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,10 +7151,10 @@
         <v>2040</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6958,10 +7162,10 @@
         <v>2045</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,10 +7173,10 @@
         <v>2050</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,10 +7184,10 @@
         <v>2055</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,10 +7195,10 @@
         <v>2060</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,10 +7206,10 @@
         <v>2065</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7013,10 +7217,10 @@
         <v>2070</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,10 +7228,10 @@
         <v>2075</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7035,10 +7239,10 @@
         <v>2080</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7046,10 +7250,10 @@
         <v>2085</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7057,10 +7261,10 @@
         <v>2090</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,10 +7272,10 @@
         <v>2095</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7079,10 +7283,10 @@
         <v>2100</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7090,10 +7294,10 @@
         <v>2105</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7101,10 +7305,10 @@
         <v>2110</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,10 +7316,10 @@
         <v>2115</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,10 +7327,10 @@
         <v>2120</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,10 +7338,10 @@
         <v>2125</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7145,10 +7349,10 @@
         <v>2130</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7156,10 +7360,10 @@
         <v>2135</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7167,10 +7371,10 @@
         <v>2140</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7178,10 +7382,10 @@
         <v>2145</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7189,10 +7393,10 @@
         <v>2150</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7200,10 +7404,10 @@
         <v>2155</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7211,10 +7415,10 @@
         <v>2160</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7222,7 +7426,7 @@
         <v>2165</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C37" s="16"/>
     </row>
@@ -7231,10 +7435,10 @@
         <v>2170</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7242,10 +7446,10 @@
         <v>2175</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7253,10 +7457,10 @@
         <v>2180</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,10 +7468,10 @@
         <v>2181</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7275,10 +7479,10 @@
         <v>2185</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7286,10 +7490,10 @@
         <v>2190</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,10 +7501,10 @@
         <v>2195</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7308,10 +7512,10 @@
         <v>2200</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7319,10 +7523,10 @@
         <v>2205</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7330,10 +7534,10 @@
         <v>2210</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7341,10 +7545,10 @@
         <v>2215</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7352,10 +7556,10 @@
         <v>2220</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7363,10 +7567,10 @@
         <v>2245</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7374,10 +7578,10 @@
         <v>2250</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,10 +7589,10 @@
         <v>2255</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7396,10 +7600,10 @@
         <v>2260</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7407,10 +7611,10 @@
         <v>2265</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7418,10 +7622,10 @@
         <v>2270</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7429,10 +7633,10 @@
         <v>2275</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7440,10 +7644,10 @@
         <v>2280</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7451,10 +7655,10 @@
         <v>2285</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7462,10 +7666,10 @@
         <v>2290</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7473,10 +7677,10 @@
         <v>2295</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,10 +7688,10 @@
         <v>2300</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7495,10 +7699,10 @@
         <v>2305</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,10 +7710,10 @@
         <v>2310</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7517,10 +7721,10 @@
         <v>2315</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,10 +7732,10 @@
         <v>2320</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7539,10 +7743,10 @@
         <v>2325</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7550,10 +7754,10 @@
         <v>2330</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7561,10 +7765,10 @@
         <v>2335</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,10 +7776,10 @@
         <v>2340</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7583,10 +7787,10 @@
         <v>2345</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7594,10 +7798,10 @@
         <v>2350</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7605,10 +7809,10 @@
         <v>2355</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7616,10 +7820,10 @@
         <v>2360</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7627,10 +7831,10 @@
         <v>2365</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7638,10 +7842,10 @@
         <v>2375</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7649,10 +7853,10 @@
         <v>2380</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7660,10 +7864,10 @@
         <v>2385</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7671,10 +7875,10 @@
         <v>2390</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7682,10 +7886,10 @@
         <v>2395</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,10 +7897,10 @@
         <v>2410</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,10 +7908,10 @@
         <v>2415</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,10 +7919,10 @@
         <v>2420</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7726,10 +7930,10 @@
         <v>2425</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7737,10 +7941,10 @@
         <v>2430</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7748,10 +7952,10 @@
         <v>2435</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,10 +7963,10 @@
         <v>2440</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,10 +7974,10 @@
         <v>2445</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7781,10 +7985,10 @@
         <v>2450</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,10 +7996,10 @@
         <v>2455</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7803,10 +8007,10 @@
         <v>2460</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7814,10 +8018,10 @@
         <v>2465</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7825,10 +8029,10 @@
         <v>2470</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7836,10 +8040,10 @@
         <v>2475</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7847,10 +8051,10 @@
         <v>2480</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7858,10 +8062,10 @@
         <v>2485</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7869,10 +8073,10 @@
         <v>2490</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,10 +8084,10 @@
         <v>2495</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7891,10 +8095,10 @@
         <v>2500</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7902,10 +8106,10 @@
         <v>2505</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7913,10 +8117,10 @@
         <v>2510</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7924,10 +8128,10 @@
         <v>2515</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7935,10 +8139,10 @@
         <v>2520</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7946,10 +8150,10 @@
         <v>2525</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,10 +8161,10 @@
         <v>2530</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,10 +8172,10 @@
         <v>2535</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7979,10 +8183,10 @@
         <v>2540</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7990,10 +8194,10 @@
         <v>2545</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8001,10 +8205,10 @@
         <v>2550</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,10 +8216,10 @@
         <v>2555</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,10 +8227,10 @@
         <v>2560</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,10 +8238,10 @@
         <v>2565</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,10 +8249,10 @@
         <v>2570</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,10 +8260,10 @@
         <v>2575</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,10 +8271,10 @@
         <v>2580</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,10 +8282,10 @@
         <v>3004</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,10 +8293,10 @@
         <v>3005</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8100,10 +8304,10 @@
         <v>4001</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,10 +8315,10 @@
         <v>4002</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,10 +8326,10 @@
         <v>4003</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,10 +8337,10 @@
         <v>4004</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,10 +8348,10 @@
         <v>4005</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8155,10 +8359,10 @@
         <v>4006</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,10 +8370,10 @@
         <v>4007</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8177,10 +8381,10 @@
         <v>4008</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8188,10 +8392,10 @@
         <v>4021</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8199,10 +8403,10 @@
         <v>4022</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8210,10 +8414,10 @@
         <v>4026</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8221,10 +8425,10 @@
         <v>4031</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8232,10 +8436,10 @@
         <v>4032</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8243,10 +8447,10 @@
         <v>4033</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8254,10 +8458,10 @@
         <v>4035</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8265,10 +8469,10 @@
         <v>4099</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8276,10 +8480,10 @@
         <v>4100</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8287,10 +8491,10 @@
         <v>4101</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8298,10 +8502,10 @@
         <v>4102</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8309,10 +8513,10 @@
         <v>4104</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,10 +8524,10 @@
         <v>4105</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8331,10 +8535,10 @@
         <v>4106</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,10 +8546,10 @@
         <v>4107</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,10 +8557,10 @@
         <v>4108</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8364,10 +8568,10 @@
         <v>4109</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8375,10 +8579,10 @@
         <v>4110</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8386,10 +8590,10 @@
         <v>4111</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8397,10 +8601,10 @@
         <v>4112</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8408,10 +8612,10 @@
         <v>4113</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,10 +8623,10 @@
         <v>4114</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8430,10 +8634,10 @@
         <v>6001</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8441,90 +8645,90 @@
         <v>6003</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C149" s="16"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C150" s="16"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C151" s="16"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C152" s="16"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C153" s="16"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C154" s="16"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C155" s="16"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C156" s="16"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C157" s="16"/>
     </row>
@@ -9380,8 +9584,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9396,21 +9600,21 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,13 +9622,13 @@
         <v>2105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9432,10 +9636,10 @@
         <v>2110</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9443,10 +9647,10 @@
         <v>2115</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9454,10 +9658,10 @@
         <v>2120</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9465,10 +9669,10 @@
         <v>2125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9476,10 +9680,10 @@
         <v>2130</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,7 +9691,7 @@
         <v>2165</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -9496,10 +9700,10 @@
         <v>2190</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9507,10 +9711,10 @@
         <v>2205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9518,10 +9722,10 @@
         <v>2210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9529,10 +9733,10 @@
         <v>2215</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9540,10 +9744,10 @@
         <v>2220</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9551,10 +9755,10 @@
         <v>2225</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9562,10 +9766,10 @@
         <v>2230</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9573,10 +9777,10 @@
         <v>2235</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9584,10 +9788,10 @@
         <v>2240</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9595,10 +9799,10 @@
         <v>2255</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9606,10 +9810,10 @@
         <v>2260</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,10 +9821,10 @@
         <v>2270</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9628,10 +9832,10 @@
         <v>2275</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9639,10 +9843,10 @@
         <v>2285</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9650,10 +9854,10 @@
         <v>2310</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9661,10 +9865,10 @@
         <v>2315</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,7 +9876,7 @@
         <v>2320</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -9681,10 +9885,10 @@
         <v>2325</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9692,10 +9896,10 @@
         <v>2375</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9703,10 +9907,10 @@
         <v>2430</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9714,10 +9918,10 @@
         <v>2435</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,10 +9929,10 @@
         <v>2445</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9736,10 +9940,10 @@
         <v>2450</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9747,7 +9951,7 @@
         <v>2455</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -9756,10 +9960,10 @@
         <v>2460</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9767,7 +9971,7 @@
         <v>2475</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -9776,7 +9980,7 @@
         <v>2515</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -9785,7 +9989,7 @@
         <v>2520</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -9794,7 +9998,7 @@
         <v>2525</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -9803,10 +10007,10 @@
         <v>2530</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9814,10 +10018,10 @@
         <v>2535</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9825,10 +10029,10 @@
         <v>2555</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9836,10 +10040,10 @@
         <v>2560</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9847,10 +10051,10 @@
         <v>2565</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9858,10 +10062,10 @@
         <v>2570</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9869,10 +10073,10 @@
         <v>3004</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,10 +10084,10 @@
         <v>3005</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9891,10 +10095,10 @@
         <v>4001</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9902,10 +10106,10 @@
         <v>4002</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9913,10 +10117,10 @@
         <v>4003</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9924,10 +10128,10 @@
         <v>4004</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9935,10 +10139,10 @@
         <v>4005</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9946,10 +10150,10 @@
         <v>4006</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9957,10 +10161,10 @@
         <v>4007</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,10 +10172,10 @@
         <v>4008</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9979,7 +10183,7 @@
         <v>4021</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -9988,10 +10192,10 @@
         <v>4022</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9999,10 +10203,10 @@
         <v>4026</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10010,10 +10214,10 @@
         <v>4031</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10021,10 +10225,10 @@
         <v>4033</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10236,7 @@
         <v>4035</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -10041,7 +10245,7 @@
         <v>4099</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C62" s="3"/>
     </row>
@@ -10050,10 +10254,10 @@
         <v>4100</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10061,10 +10265,10 @@
         <v>4101</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10072,10 +10276,10 @@
         <v>4102</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10083,7 +10287,7 @@
         <v>4104</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -10092,7 +10296,7 @@
         <v>4105</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -10101,7 +10305,7 @@
         <v>4106</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C68" s="3"/>
     </row>
@@ -10110,7 +10314,7 @@
         <v>4107</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -10119,7 +10323,7 @@
         <v>4108</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -10128,7 +10332,7 @@
         <v>4109</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -10137,7 +10341,7 @@
         <v>4110</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C72" s="3"/>
     </row>
@@ -10146,7 +10350,7 @@
         <v>4111</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -10155,7 +10359,7 @@
         <v>4112</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -10164,7 +10368,7 @@
         <v>4113</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -10173,32 +10377,32 @@
         <v>4114</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,31 +10412,31 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,10 +10444,10 @@
         <v>1000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10251,10 +10455,10 @@
         <v>2000</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10262,10 +10466,10 @@
         <v>2005</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10273,10 +10477,10 @@
         <v>2010</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,10 +10488,10 @@
         <v>2015</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10295,10 +10499,10 @@
         <v>2020</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10306,10 +10510,10 @@
         <v>2025</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10317,10 +10521,10 @@
         <v>2030</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10328,10 +10532,10 @@
         <v>2035</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10339,10 +10543,10 @@
         <v>2040</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10350,10 +10554,10 @@
         <v>2045</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10361,10 +10565,10 @@
         <v>2050</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10372,10 +10576,10 @@
         <v>2055</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10383,10 +10587,10 @@
         <v>2060</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10394,7 +10598,7 @@
         <v>2065</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -10403,7 +10607,7 @@
         <v>2070</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C98" s="3"/>
     </row>
@@ -10412,10 +10616,10 @@
         <v>2075</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10423,10 +10627,10 @@
         <v>2080</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10434,10 +10638,10 @@
         <v>2085</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10445,10 +10649,10 @@
         <v>2090</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10456,10 +10660,10 @@
         <v>2095</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10467,10 +10671,10 @@
         <v>2100</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10478,10 +10682,10 @@
         <v>2115</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10489,10 +10693,10 @@
         <v>2135</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10500,10 +10704,10 @@
         <v>2140</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10511,10 +10715,10 @@
         <v>2145</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,7 +10726,7 @@
         <v>2150</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -10531,10 +10735,10 @@
         <v>2155</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10542,10 +10746,10 @@
         <v>2160</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10553,7 +10757,7 @@
         <v>2165</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C112" s="3"/>
     </row>
@@ -10562,10 +10766,10 @@
         <v>2170</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10573,10 +10777,10 @@
         <v>2175</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,10 +10788,10 @@
         <v>2181</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10595,10 +10799,10 @@
         <v>2185</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10606,7 +10810,7 @@
         <v>2190</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -10615,7 +10819,7 @@
         <v>2195</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -10624,7 +10828,7 @@
         <v>2200</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C119" s="3"/>
     </row>
@@ -10633,10 +10837,10 @@
         <v>2205</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10644,7 +10848,7 @@
         <v>2210</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C121" s="3"/>
     </row>
@@ -10653,7 +10857,7 @@
         <v>2240</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -10662,7 +10866,7 @@
         <v>2245</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -10671,10 +10875,10 @@
         <v>2250</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10682,7 +10886,7 @@
         <v>2260</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -10691,7 +10895,7 @@
         <v>2265</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C126" s="3"/>
     </row>
@@ -10700,7 +10904,7 @@
         <v>2280</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C127" s="3"/>
     </row>
@@ -10709,10 +10913,10 @@
         <v>2285</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10720,7 +10924,7 @@
         <v>2290</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C129" s="3"/>
     </row>
@@ -10729,7 +10933,7 @@
         <v>2295</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C130" s="3"/>
     </row>
@@ -10738,7 +10942,7 @@
         <v>2300</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -10747,7 +10951,7 @@
         <v>2305</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C132" s="3"/>
     </row>
@@ -10756,7 +10960,7 @@
         <v>2315</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -10765,7 +10969,7 @@
         <v>2320</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C134" s="3"/>
     </row>
@@ -10774,7 +10978,7 @@
         <v>2325</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C135" s="3"/>
     </row>
@@ -10783,10 +10987,10 @@
         <v>2330</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10794,7 +10998,7 @@
         <v>2375</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C137" s="3"/>
     </row>
@@ -10803,7 +11007,7 @@
         <v>2415</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C138" s="3"/>
     </row>
@@ -10812,7 +11016,7 @@
         <v>2420</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C139" s="3"/>
     </row>
@@ -10821,7 +11025,7 @@
         <v>2425</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C140" s="3"/>
     </row>
@@ -10830,7 +11034,7 @@
         <v>2435</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C141" s="3"/>
     </row>
@@ -10839,7 +11043,7 @@
         <v>2440</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C142" s="3"/>
     </row>
@@ -10848,7 +11052,7 @@
         <v>2445</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C143" s="3"/>
     </row>
@@ -10857,7 +11061,7 @@
         <v>2450</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C144" s="3"/>
     </row>
@@ -10866,7 +11070,7 @@
         <v>2455</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C145" s="3"/>
     </row>
@@ -10875,7 +11079,7 @@
         <v>2460</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C146" s="3"/>
     </row>
@@ -10884,7 +11088,7 @@
         <v>2465</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C147" s="3"/>
     </row>
@@ -10893,7 +11097,7 @@
         <v>2470</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C148" s="3"/>
     </row>
@@ -10902,7 +11106,7 @@
         <v>2475</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C149" s="3"/>
     </row>
@@ -10911,7 +11115,7 @@
         <v>2480</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C150" s="3"/>
     </row>
@@ -10920,7 +11124,7 @@
         <v>2485</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C151" s="3"/>
     </row>
@@ -10929,7 +11133,7 @@
         <v>2490</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C152" s="3"/>
     </row>
@@ -10938,7 +11142,7 @@
         <v>2495</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C153" s="3"/>
     </row>
@@ -10947,7 +11151,7 @@
         <v>2500</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C154" s="3"/>
     </row>
@@ -10956,7 +11160,7 @@
         <v>2505</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C155" s="3"/>
     </row>
@@ -10965,7 +11169,7 @@
         <v>2510</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C156" s="3"/>
     </row>
@@ -10974,7 +11178,7 @@
         <v>2515</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C157" s="3"/>
     </row>
@@ -10983,7 +11187,7 @@
         <v>2520</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C158" s="3"/>
     </row>
@@ -10992,7 +11196,7 @@
         <v>2525</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C159" s="3"/>
     </row>
@@ -11001,7 +11205,7 @@
         <v>2530</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C160" s="3"/>
     </row>
@@ -11010,7 +11214,7 @@
         <v>2535</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C161" s="3"/>
     </row>
@@ -11019,7 +11223,7 @@
         <v>2540</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C162" s="3"/>
     </row>
@@ -11028,7 +11232,7 @@
         <v>2545</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C163" s="3"/>
     </row>
@@ -11037,7 +11241,7 @@
         <v>2550</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C164" s="3"/>
     </row>
@@ -11046,7 +11250,7 @@
         <v>2555</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C165" s="3"/>
     </row>
@@ -11055,7 +11259,7 @@
         <v>2560</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C166" s="3"/>
     </row>
@@ -11064,7 +11268,7 @@
         <v>2565</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C167" s="3"/>
     </row>
@@ -11073,7 +11277,7 @@
         <v>2570</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C168" s="3"/>
     </row>
@@ -11082,10 +11286,10 @@
         <v>2575</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,7 +11297,7 @@
         <v>2580</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C170" s="3"/>
     </row>
@@ -11102,10 +11306,10 @@
         <v>6001</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11113,63 +11317,63 @@
         <v>6003</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C178" s="3"/>
     </row>
@@ -11180,20 +11384,20 @@
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11201,10 +11405,10 @@
         <v>2005</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11212,10 +11416,10 @@
         <v>2010</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11223,10 +11427,10 @@
         <v>2015</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11234,10 +11438,10 @@
         <v>2020</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11245,7 +11449,7 @@
         <v>2075</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C186" s="5"/>
     </row>
@@ -11254,7 +11458,7 @@
         <v>2115</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C187" s="5"/>
     </row>
@@ -11263,7 +11467,7 @@
         <v>2135</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C188" s="5"/>
     </row>
@@ -11272,10 +11476,10 @@
         <v>2155</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11283,7 +11487,7 @@
         <v>2165</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C190" s="5"/>
     </row>
@@ -11292,7 +11496,7 @@
         <v>2180</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C191" s="5"/>
     </row>
@@ -11301,7 +11505,7 @@
         <v>2181</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C192" s="5"/>
     </row>
@@ -11310,7 +11514,7 @@
         <v>2185</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C193" s="5"/>
     </row>
@@ -11319,7 +11523,7 @@
         <v>2190</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C194" s="5"/>
     </row>
@@ -11328,7 +11532,7 @@
         <v>2195</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C195" s="5"/>
     </row>
@@ -11337,7 +11541,7 @@
         <v>2200</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C196" s="5"/>
     </row>
@@ -11346,7 +11550,7 @@
         <v>2205</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C197" s="5"/>
     </row>
@@ -11355,7 +11559,7 @@
         <v>2210</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C198" s="5"/>
     </row>
@@ -11364,7 +11568,7 @@
         <v>2245</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C199" s="5"/>
     </row>
@@ -11373,7 +11577,7 @@
         <v>2265</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C200" s="5"/>
     </row>
@@ -11382,7 +11586,7 @@
         <v>2280</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C201" s="5"/>
     </row>
@@ -11391,7 +11595,7 @@
         <v>2290</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C202" s="5"/>
     </row>
@@ -11400,7 +11604,7 @@
         <v>2295</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C203" s="5"/>
     </row>
@@ -11409,7 +11613,7 @@
         <v>2300</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C204" s="5"/>
     </row>
@@ -11418,7 +11622,7 @@
         <v>2305</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C205" s="5"/>
     </row>
@@ -11427,7 +11631,7 @@
         <v>2325</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C206" s="5"/>
     </row>
@@ -11436,10 +11640,10 @@
         <v>2330</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11447,7 +11651,7 @@
         <v>2335</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C208" s="5"/>
     </row>
@@ -11456,7 +11660,7 @@
         <v>2340</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C209" s="5"/>
     </row>
@@ -11465,7 +11669,7 @@
         <v>2345</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C210" s="5"/>
     </row>
@@ -11474,7 +11678,7 @@
         <v>2350</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C211" s="5"/>
     </row>
@@ -11483,7 +11687,7 @@
         <v>2355</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C212" s="5"/>
     </row>
@@ -11492,7 +11696,7 @@
         <v>2360</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C213" s="5"/>
     </row>
@@ -11501,7 +11705,7 @@
         <v>2365</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C214" s="5"/>
     </row>
@@ -11510,7 +11714,7 @@
         <v>2375</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C215" s="5"/>
     </row>
@@ -11519,7 +11723,7 @@
         <v>2380</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C216" s="5"/>
     </row>
@@ -11528,7 +11732,7 @@
         <v>2385</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C217" s="5"/>
     </row>
@@ -11537,7 +11741,7 @@
         <v>2390</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C218" s="5"/>
     </row>
@@ -11546,7 +11750,7 @@
         <v>2395</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C219" s="5"/>
     </row>
@@ -11555,7 +11759,7 @@
         <v>2410</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C220" s="5"/>
     </row>
@@ -11564,7 +11768,7 @@
         <v>2415</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C221" s="5"/>
     </row>
@@ -11573,7 +11777,7 @@
         <v>2420</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C222" s="5"/>
     </row>
@@ -11582,7 +11786,7 @@
         <v>2425</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C223" s="5"/>
     </row>
@@ -11591,7 +11795,7 @@
         <v>2435</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C224" s="5"/>
     </row>
@@ -11600,7 +11804,7 @@
         <v>2445</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C225" s="5"/>
     </row>
@@ -11609,7 +11813,7 @@
         <v>2455</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C226" s="5"/>
     </row>
@@ -11618,7 +11822,7 @@
         <v>2465</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C227" s="5"/>
     </row>
@@ -11627,7 +11831,7 @@
         <v>2470</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C228" s="5"/>
     </row>
@@ -11636,7 +11840,7 @@
         <v>2475</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C229" s="5"/>
     </row>
@@ -11645,7 +11849,7 @@
         <v>2480</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C230" s="5"/>
     </row>
@@ -11654,7 +11858,7 @@
         <v>2485</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C231" s="5"/>
     </row>
@@ -11663,7 +11867,7 @@
         <v>2490</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C232" s="5"/>
     </row>
@@ -11672,7 +11876,7 @@
         <v>2495</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C233" s="5"/>
     </row>
@@ -11681,7 +11885,7 @@
         <v>2500</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C234" s="5"/>
     </row>
@@ -11690,7 +11894,7 @@
         <v>2505</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C235" s="5"/>
     </row>
@@ -11699,7 +11903,7 @@
         <v>2510</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C236" s="5"/>
     </row>
@@ -11708,7 +11912,7 @@
         <v>2515</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C237" s="5"/>
     </row>
@@ -11717,7 +11921,7 @@
         <v>2520</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C238" s="5"/>
     </row>
@@ -11726,7 +11930,7 @@
         <v>2525</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C239" s="5"/>
     </row>
@@ -11735,7 +11939,7 @@
         <v>2530</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C240" s="5"/>
     </row>
@@ -11744,7 +11948,7 @@
         <v>2535</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C241" s="5"/>
     </row>
@@ -11753,7 +11957,7 @@
         <v>2540</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C242" s="5"/>
     </row>
@@ -11762,7 +11966,7 @@
         <v>2545</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C243" s="5"/>
     </row>
@@ -11771,7 +11975,7 @@
         <v>2550</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C244" s="5"/>
     </row>
@@ -11780,7 +11984,7 @@
         <v>2555</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C245" s="5"/>
     </row>
@@ -11789,7 +11993,7 @@
         <v>2560</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C246" s="5"/>
     </row>
@@ -11798,7 +12002,7 @@
         <v>2565</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C247" s="5"/>
     </row>
@@ -11807,7 +12011,7 @@
         <v>2570</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C248" s="5"/>
     </row>
@@ -11816,7 +12020,7 @@
         <v>2575</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C249" s="5"/>
     </row>
@@ -11825,7 +12029,7 @@
         <v>2580</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C250" s="5"/>
     </row>
@@ -11834,7 +12038,7 @@
         <v>4001</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C251" s="5"/>
     </row>
@@ -11843,7 +12047,7 @@
         <v>4002</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C252" s="5"/>
     </row>
@@ -11852,7 +12056,7 @@
         <v>4004</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C253" s="5"/>
     </row>
@@ -11861,7 +12065,7 @@
         <v>4005</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C254" s="5"/>
     </row>
@@ -11870,7 +12074,7 @@
         <v>4006</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C255" s="5"/>
     </row>
@@ -11879,7 +12083,7 @@
         <v>4021</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C256" s="5"/>
     </row>
@@ -11888,7 +12092,7 @@
         <v>4022</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C257" s="5"/>
     </row>
@@ -11897,7 +12101,7 @@
         <v>4026</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C258" s="5"/>
     </row>
@@ -11906,7 +12110,7 @@
         <v>4031</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C259" s="5"/>
     </row>
@@ -11915,7 +12119,7 @@
         <v>4032</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C260" s="5"/>
     </row>
@@ -11924,7 +12128,7 @@
         <v>4033</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C261" s="5"/>
     </row>
@@ -11933,7 +12137,7 @@
         <v>4102</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C262" s="5"/>
     </row>
@@ -11942,7 +12146,7 @@
         <v>4104</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C263" s="5"/>
     </row>
@@ -11951,7 +12155,7 @@
         <v>4105</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C264" s="5"/>
     </row>
@@ -11960,7 +12164,7 @@
         <v>4106</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C265" s="5"/>
     </row>
@@ -11969,7 +12173,7 @@
         <v>4107</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C266" s="5"/>
     </row>
@@ -11978,7 +12182,7 @@
         <v>4108</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C267" s="5"/>
     </row>
@@ -11987,7 +12191,7 @@
         <v>4110</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C268" s="5"/>
     </row>
@@ -11996,7 +12200,7 @@
         <v>4111</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C269" s="5"/>
     </row>
@@ -12005,7 +12209,7 @@
         <v>4112</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C270" s="5"/>
     </row>
@@ -12014,7 +12218,7 @@
         <v>4113</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C271" s="5"/>
     </row>
@@ -12023,7 +12227,7 @@
         <v>4114</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C272" s="5"/>
     </row>
@@ -12761,8 +12965,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12778,107 +12982,107 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Mapping Matrix update.xlsx
+++ b/Mapping Matrix update.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ipan\PrePayrollIndosat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ADF3F2-B8C4-43B7-9259-778EB1122AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PICemail &amp; WTprefix" sheetId="1" r:id="rId1"/>
@@ -20,8 +21,14 @@
     <sheet name="Matriks Wagetype-policy" sheetId="5" r:id="rId6"/>
     <sheet name="Query LSMW" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh1Oul/DqDWf3gpgtqNq2zZgvepUw=="/>
     </ext>
@@ -1644,49 +1651,49 @@
     <t>Password TVExtract</t>
   </si>
   <si>
-    <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx</t>
-  </si>
-  <si>
     <t>Nama File</t>
   </si>
   <si>
-    <t>4023,4024,4025;4004,4005,4006,4007;4026;2060;2160;2190</t>
-  </si>
-  <si>
-    <t>New Hire;ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;Musibah;Nikah;Khitan</t>
-  </si>
-  <si>
     <t>Nama Sheet</t>
   </si>
   <si>
-    <t>D5:O;C10:AC;B9:D;D2:L;B2:K;B2:H</t>
-  </si>
-  <si>
     <t>Range column yg diambil</t>
   </si>
   <si>
     <t>Range Filter</t>
   </si>
   <si>
-    <t>0,9,10,11,99;0,23,24,25,26;0,2,91,92,93;0,8,91,92,93;0,1,91,92,93;0,1,91,92,93</t>
-  </si>
-  <si>
     <t>Penambah Cell</t>
   </si>
   <si>
-    <t>4;8;8;1;1;1</t>
-  </si>
-  <si>
     <t>1000000;300000</t>
   </si>
   <si>
     <t>List Amount</t>
+  </si>
+  <si>
+    <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx;overmedic.xlsx</t>
+  </si>
+  <si>
+    <t>4023,4024,4025;4004,4005,4006,4007;4026;2060;2160;2190;4001</t>
+  </si>
+  <si>
+    <t>New Hire;ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;Musibah;Nikah;Khitan;Master data</t>
+  </si>
+  <si>
+    <t>4;8;8;1;1;1;1</t>
+  </si>
+  <si>
+    <t>0,9,10,11,99;0,23,24,25,26;0,2,91,92,93;0,8,91,92,93;0,1,91,92,93;0,1,91,92,93;0,6,7,8,93</t>
+  </si>
+  <si>
+    <t>D5:O;C10:AC;B9:D;D2:L;B2:K;B2:H;B2:J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1905,7 +1912,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="WT English-style" pivot="0" count="3">
+    <tableStyle name="WT English-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1923,11 +1930,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:C157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:C157">
   <tableColumns count="3">
-    <tableColumn id="1" name="Wage type"/>
-    <tableColumn id="2" name="Wage type Long Text"/>
-    <tableColumn id="3" name="In English Term"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Wage type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Wage type Long Text"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="In English Term"/>
   </tableColumns>
   <tableStyleInfo name="WT English-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2130,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -3586,18 +3593,18 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C13" r:id="rId5"/>
-    <hyperlink ref="C16" r:id="rId6"/>
-    <hyperlink ref="C18" r:id="rId7"/>
-    <hyperlink ref="C20" r:id="rId8"/>
-    <hyperlink ref="C22" r:id="rId9"/>
-    <hyperlink ref="C26" r:id="rId10"/>
-    <hyperlink ref="C27" r:id="rId11"/>
-    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -3605,11 +3612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3652,10 +3659,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,36 +3670,36 @@
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B12" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
         <v>547</v>
@@ -3700,10 +3707,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,20 +5114,20 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C17" r:id="rId3"/>
-    <hyperlink ref="C18" r:id="rId4"/>
-    <hyperlink ref="C19" r:id="rId5"/>
-    <hyperlink ref="C20" r:id="rId6"/>
-    <hyperlink ref="C23" r:id="rId7"/>
-    <hyperlink ref="C24" r:id="rId8"/>
-    <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C26" r:id="rId10"/>
-    <hyperlink ref="C30" r:id="rId11"/>
-    <hyperlink ref="C31" r:id="rId12"/>
-    <hyperlink ref="C32" r:id="rId13"/>
-    <hyperlink ref="C35" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C30" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C31" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C32" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5128,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,17 +7007,17 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F10" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
-    <hyperlink ref="F19" r:id="rId5"/>
-    <hyperlink ref="F21" r:id="rId6"/>
-    <hyperlink ref="F33" r:id="rId7"/>
-    <hyperlink ref="F41" r:id="rId8"/>
-    <hyperlink ref="F46" r:id="rId9"/>
-    <hyperlink ref="F63" r:id="rId10"/>
-    <hyperlink ref="F65" r:id="rId11"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F33" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F41" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="F46" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="F63" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="F65" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7018,7 +7025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9585,7 +9592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12966,7 +12973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Mapping Matrix update.xlsx
+++ b/Mapping Matrix update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ipan\PrePayrollIndosat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ADF3F2-B8C4-43B7-9259-778EB1122AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF391486-F50F-49C8-8132-3ACD2B4F6FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,6 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mh1Oul/DqDWf3gpgtqNq2zZgvepUw=="/>
     </ext>
@@ -1672,22 +1666,22 @@
     <t>List Amount</t>
   </si>
   <si>
-    <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx;overmedic.xlsx</t>
-  </si>
-  <si>
-    <t>4023,4024,4025;4004,4005,4006,4007;4026;2060;2160;2190;4001</t>
-  </si>
-  <si>
-    <t>New Hire;ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;Musibah;Nikah;Khitan;Master data</t>
-  </si>
-  <si>
-    <t>4;8;8;1;1;1;1</t>
-  </si>
-  <si>
-    <t>0,9,10,11,99;0,23,24,25,26;0,2,91,92,93;0,8,91,92,93;0,1,91,92,93;0,1,91,92,93;0,6,7,8,93</t>
-  </si>
-  <si>
-    <t>D5:O;C10:AC;B9:D;D2:L;B2:K;B2:H;B2:J</t>
+    <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx;overmedic.xlsx;Sales Incentive.xlsx</t>
+  </si>
+  <si>
+    <t>4004,4005,4006,4007;4026;2060;0;4001;0;2135;4023,4024,4025;0;2160;2060;2190</t>
+  </si>
+  <si>
+    <t>ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;0;Master data;0;Sheet1;New Hire;0;Nikah;Musibah;Khitan</t>
+  </si>
+  <si>
+    <t>C10:AC;B9:D;0;B2:J;0;C2:F;D5:O;0;B2:K;D2:L;B2:H</t>
+  </si>
+  <si>
+    <t>0,23,24,25,26;0,2,91,92,93;91,92,93,94,95;0,6,7,8,93;91,92,93,94,95;0,3,91,92,93;0,9,10,11,99;91,92,93,94,95;0,1,91,92,93;0,8,91,92,93;0,1,91,92,93;</t>
+  </si>
+  <si>
+    <t>8;8;0;1;0;1;4;0;1;1;1</t>
   </si>
 </sst>
 </file>
@@ -2140,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3610,7 @@
   <dimension ref="A4:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3686,7 +3680,7 @@
         <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3696,7 @@
         <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/Mapping Matrix update.xlsx
+++ b/Mapping Matrix update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ipan\PrePayrollIndosat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF391486-F50F-49C8-8132-3ACD2B4F6FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B414E29-C167-4EE4-BBB7-1BEEF7EF2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="552">
   <si>
     <t>Pre-payroll untuk notes yang ada di masing-masing WT berdasarkan data dari eksternal</t>
   </si>
@@ -1669,19 +1669,25 @@
     <t>New Hire.xlsx;kopindosat.xlsx;kopensat.xls;Bantuan Musibah.xlsx;Bantuan Nikah.xlsx;Khitan.xlsx;overmedic.xlsx;Sales Incentive.xlsx</t>
   </si>
   <si>
-    <t>4004,4005,4006,4007;4026;2060;0;4001;0;2135;4023,4024,4025;0;2160;2060;2190</t>
-  </si>
-  <si>
-    <t>ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;0;Master data;0;Sheet1;New Hire;0;Nikah;Musibah;Khitan</t>
-  </si>
-  <si>
-    <t>C10:AC;B9:D;0;B2:J;0;C2:F;D5:O;0;B2:K;D2:L;B2:H</t>
-  </si>
-  <si>
-    <t>0,23,24,25,26;0,2,91,92,93;91,92,93,94,95;0,6,7,8,93;91,92,93,94,95;0,3,91,92,93;0,9,10,11,99;91,92,93,94,95;0,1,91,92,93;0,8,91,92,93;0,1,91,92,93;</t>
-  </si>
-  <si>
     <t>8;8;0;1;0;1;4;0;1;1;1</t>
+  </si>
+  <si>
+    <t>Bantuan Khitan</t>
+  </si>
+  <si>
+    <t>Khitan</t>
+  </si>
+  <si>
+    <t>4004,4005,4006,4007;4026;2060;0;4001;0;2135;4023,4024,4025;0;2060;2160;2190</t>
+  </si>
+  <si>
+    <t>ISAT 25 AGUSTUS 2020;AGUSTUS 2020 OK;0;Master data;0;Sheet1;New Hire;0;Musibah;Nikah;Khitan</t>
+  </si>
+  <si>
+    <t>C10:AC;B9:D;0;B2:J;0;C2:F;D5:O;0;D2:L;B2:K;B2:H</t>
+  </si>
+  <si>
+    <t>0,23,24,25,26;0,2,91,92,93;91,92,93,94,95;0,6,7,8,93;91,92,93,94,95;0,3,91,92,93;0,9,10,11,99;91,92,93,94,95;0,8,91,92,93;0,1,91,92,93;0,1,91,92,93;</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2574,42 +2580,54 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>9</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>241</v>
+      <c r="B27" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>526</v>
+      <c r="D27" s="26" t="s">
+        <v>528</v>
       </c>
       <c r="H27" s="27" t="str">
         <f>I4&amp;"\External\" &amp;B27</f>
-        <v>D:\PrePayroll\2020\11\External\Bantuan Nikah</v>
+        <v>D:\PrePayroll\2020\11\External\Bantuan Musibah</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>203</v>
+      <c r="B28" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>528</v>
+      <c r="D28" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="H28" s="27" t="str">
         <f>I4&amp;"\External\" &amp;B28</f>
-        <v>D:\PrePayroll\2020\11\External\Bantuan Musibah</v>
+        <v>D:\PrePayroll\2020\11\External\Bantuan Nikah</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>11</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>547</v>
+      </c>
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3597,11 +3615,12 @@
     <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{9DAACCA7-7857-4EDF-A7AF-C8BCFDCF411F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3610,7 +3629,7 @@
   <dimension ref="A4:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3664,7 +3683,7 @@
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3672,7 +3691,7 @@
         <v>538</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3680,7 +3699,7 @@
         <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3688,7 +3707,7 @@
         <v>540</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3696,7 +3715,7 @@
         <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
